--- a/pred_ohlcv/54_21/2019-10-27 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LTC ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>-1004.60506573</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-990.5214657300002</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1257.62526573</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1001.84616573</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-970.2357657300001</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1019.14226573</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1011.26666573</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1083.23746573</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-893.4153657300002</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-767.0235502500001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-472.09325025</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-474.98725025</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-474.71715025</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-485.95275025</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-485.95275025</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-476.48945025</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-473.24205025</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-473.24205025</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-436.73915025</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-436.73915025</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-436.73915025</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-440.7078502499999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-427.0872502499999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-432.6193502499999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-451.9214502499999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-461.9918502499999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-459.3798502499999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-396.1770502499999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-406.9770502499999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-470.0218502499999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-475.5592502499999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-455.5592502499999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-472.6312502499999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-115.8336309099998</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-126.2749309099998</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-136.5573309099998</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-134.2803309099998</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-151.2803309099998</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-151.0783309099998</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-54.38753090999978</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3.245009130000221</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>75.20159369000018</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-108.1022063099998</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>132.2278936900002</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>130.5799936900002</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>186.6156936900002</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>173.7162936900002</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>163.1221936900002</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>164.0603936900002</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>61.86949369000018</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>133.4475936900002</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>211.9158936900002</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>198.2660936900002</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>198.2660936900002</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>203.7846936900002</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>196.0407936900002</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>186.0407936900002</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>186.0407936900002</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>286.0407936900002</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>269.6369936900002</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>147.8003936900002</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>299.3913936900002</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>299.1913936900002</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>323.4635936900002</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>298.8952936900002</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>214.2470936900002</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-86.77930630999984</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-33.27270630999984</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-80.60550630999984</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LTC ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-990.5214657300002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1257.62526573</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1214.26696573</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-933.53416573</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-899.1942657300001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-900.5912657300001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1001.84616573</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1001.84616573</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1002.34606573</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1002.34606573</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1000.45926573</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-961.4143657300002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-971.7546657300002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-970.1356657300001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1019.14226573</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1011.26666573</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1083.23746573</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-893.4153657300002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-767.0235502500001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-472.09325025</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-474.98725025</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-474.71715025</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-485.95275025</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-485.95275025</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-476.48945025</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-473.24205025</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-473.24205025</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-436.73915025</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-436.73915025</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-436.73915025</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-440.7078502499999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-427.0872502499999</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-432.6193502499999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-451.9214502499999</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-461.9918502499999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-459.3798502499999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-396.1770502499999</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-406.9770502499999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-470.0218502499999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-475.5592502499999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-455.5592502499999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-472.6312502499999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-115.8336309099998</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-126.2749309099998</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-136.5573309099998</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-134.2803309099998</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-151.2803309099998</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-151.0783309099998</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-54.38753090999978</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3.245009130000221</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>101.5840936900002</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>101.5840936900002</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>101.5840936900002</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>107.0472936900002</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>129.4044936900002</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>75.20159369000018</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-108.1022063099998</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-145.2604063099998</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>69.8439936900002</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>99.8429936900002</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>132.2278936900002</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>130.5799936900002</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>186.6156936900002</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>173.7162936900002</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>163.1221936900002</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>164.0603936900002</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>61.86949369000018</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>133.4475936900002</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>211.9158936900002</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>198.2660936900002</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>198.2660936900002</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>203.7846936900002</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>196.0407936900002</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>186.0407936900002</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>186.0407936900002</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>286.0407936900002</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>269.6369936900002</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>147.8003936900002</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>299.3913936900002</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>299.1913936900002</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>323.4635936900002</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>298.8952936900002</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>214.2470936900002</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-86.77930630999984</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-33.27270630999984</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
